--- a/timetable/timetable.xlsx
+++ b/timetable/timetable.xlsx
@@ -454,32 +454,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MCA6</t>
+          <t>MCA4,T4,RS101</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MCA1</t>
+          <t>MCA5,T5,RS101</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MCA6</t>
+          <t>MCA3,T3,RS101</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MCA2</t>
+          <t>MCA2,T2,RS101</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MCA5</t>
+          <t>MCA6,T6,RS101</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>MCA1</t>
+          <t>MCA4,T4,RS101</t>
         </is>
       </c>
     </row>
@@ -491,32 +491,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MCA5</t>
+          <t>MCA2,T2,RS101</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MCA6</t>
+          <t>MCA5,T6,RS101</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MCA5</t>
+          <t>MCA2,T2,RS101</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MCA3</t>
+          <t>MCA3,T3,RS101</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MCA2</t>
+          <t>MCA1,T1,RS101</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>MCA3</t>
+          <t>MCA3,T3,RS101</t>
         </is>
       </c>
     </row>
@@ -528,32 +528,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCA2</t>
+          <t>MCA1,T1,RS101</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MCA6</t>
+          <t>MCA3,T3,RS101</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MCA3</t>
+          <t>MCA2,T2,RS101</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MCA4</t>
+          <t>MCA3,T3,RS101</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MCA3</t>
+          <t>MCA1,T1,RS101</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>MCA4</t>
+          <t>MCA6,T6,RS101</t>
         </is>
       </c>
     </row>
@@ -565,32 +565,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCA3</t>
+          <t>MCA4,T4,RS101</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MCA2</t>
+          <t>MCA6,T6,RS101</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MCA1</t>
+          <t>MCA4,T4,RS101</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MCA5</t>
+          <t>MCA5,T5,RS101</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MCA1</t>
+          <t>MCA1,T1,RS101</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>MCA4</t>
+          <t>MCA5,T6,RS101</t>
         </is>
       </c>
     </row>
@@ -602,32 +602,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MCA4</t>
+          <t>MCA6,T5,RS101</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MCA2</t>
+          <t>MCA2,T2,RS101</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MCA4</t>
+          <t>MCA5,T6,RS101</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MCA6</t>
+          <t>MCA6,T5,RS101</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MCA1</t>
+          <t>MCA1,T1,RS101</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MCA5</t>
+          <t>MCA4,T4,RS101</t>
         </is>
       </c>
     </row>

--- a/timetable/timetable.xlsx
+++ b/timetable/timetable.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MCA2022" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RMCA2030" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,32 +454,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MCA4,T4,RS101</t>
+          <t>MCA3,T3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MCA5,T5,RS101</t>
+          <t>MCAL1,T2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MCA3,T3,RS101</t>
+          <t>MCA3,T3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MCA2,T2,RS101</t>
+          <t>MCA2,T2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MCA6,T6,RS101</t>
+          <t>MCA1,T1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>MCA4,T4,RS101</t>
+          <t>MCA2,T2</t>
         </is>
       </c>
     </row>
@@ -491,32 +491,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MCA2,T2,RS101</t>
+          <t>MCA1,T1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MCA5,T6,RS101</t>
+          <t>MCA1,T1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MCA2,T2,RS101</t>
+          <t>MCA1,T1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MCA3,T3,RS101</t>
+          <t>MCA4,T4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MCA1,T1,RS101</t>
+          <t>MCAL1,T3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>MCA3,T3,RS101</t>
+          <t>MCA4,T4</t>
         </is>
       </c>
     </row>
@@ -528,32 +528,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCA1,T1,RS101</t>
+          <t>MCA1,T1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MCA3,T3,RS101</t>
+          <t>MCA4,T4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MCA2,T2,RS101</t>
+          <t>MCA2,T2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MCA3,T3,RS101</t>
+          <t>MCAL1,T2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MCA1,T1,RS101</t>
+          <t>MCA1,T1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>MCA6,T6,RS101</t>
+          <t>MCA4,T4</t>
         </is>
       </c>
     </row>
@@ -565,32 +565,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCA4,T4,RS101</t>
+          <t>MCA2,T2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MCA6,T6,RS101</t>
+          <t>MCA4,T4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MCA4,T4,RS101</t>
+          <t>MCAL1,T3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MCA5,T5,RS101</t>
+          <t>MCA3,T3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MCA1,T1,RS101</t>
+          <t>MCA2,T2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>MCA5,T6,RS101</t>
+          <t>MCA2,T2</t>
         </is>
       </c>
     </row>
@@ -602,32 +602,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MCA6,T5,RS101</t>
+          <t>MCA3,T3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MCA2,T2,RS101</t>
+          <t>MCA4,T4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MCA5,T6,RS101</t>
+          <t>MCAL1,T4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MCA6,T5,RS101</t>
+          <t>MCA3,T3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MCA1,T1,RS101</t>
+          <t>MCAL1,T4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MCA4,T4,RS101</t>
+          <t>MCA3,T3</t>
         </is>
       </c>
     </row>

--- a/timetable/timetable.xlsx
+++ b/timetable/timetable.xlsx
@@ -1,34 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main Project\cms\timetable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7716" windowHeight="5772" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RMCA2030" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RMCA2030" sheetId="1" r:id="rId1"/>
+    <sheet name="INTMCA2031" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>MCA2,T2</t>
+  </si>
+  <si>
+    <t>MCA1,T1</t>
+  </si>
+  <si>
+    <t>MCA3,T3</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>MCA4,T4</t>
+  </si>
+  <si>
+    <t>MCAL1,T1</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>MCAL1,T3</t>
+  </si>
+  <si>
+    <t>MCAL1,T4</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>INTMCA2,T2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +98,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,230 +400,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G6" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>DAY</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" t="n">
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="G1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MCA3,T3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MCAL1,T2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MCA3,T3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MCA1,T1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MCA1,T1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MCA1,T1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MCA1,T1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MCA4,T4</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MCAL1,T3</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>MCA4,T4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MCA1,T1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MCA4,T4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MCAL1,T2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>MCA1,T1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>MCA4,T4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MCA4,T4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MCAL1,T3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MCA3,T3</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MCA3,T3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MCA4,T4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MCAL1,T4</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MCA3,T3</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MCAL1,T4</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>MCA3,T3</t>
-        </is>
+      <c r="G1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/timetable/timetable.xlsx
+++ b/timetable/timetable.xlsx
@@ -9,18 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7716" windowHeight="5772" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7716" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="RMCA2030" sheetId="1" r:id="rId1"/>
-    <sheet name="INTMCA2031" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>DAY</t>
   </si>
@@ -59,9 +58,6 @@
   </si>
   <si>
     <t>Friday</t>
-  </si>
-  <si>
-    <t>INTMCA2,T2</t>
   </si>
 </sst>
 </file>
@@ -403,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,157 +546,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/timetable/timetable.xlsx
+++ b/timetable/timetable.xlsx
@@ -1,81 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main Project\cms\timetable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7716" windowHeight="5772"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RMCA2030" sheetId="1" r:id="rId1"/>
+    <sheet name="RMCA2030" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
-  <si>
-    <t>DAY</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>MCA2,T2</t>
-  </si>
-  <si>
-    <t>MCA1,T1</t>
-  </si>
-  <si>
-    <t>MCA3,T3</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>MCA4,T4</t>
-  </si>
-  <si>
-    <t>MCAL1,T1</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>MCAL1,T3</t>
-  </si>
-  <si>
-    <t>MCAL1,T4</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,151 +408,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DAY</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="n">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" t="n">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" t="n">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" t="n">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MCA3,T3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MCA2,T2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MCAL1,T1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MCA1,T1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MCA3,T3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>MCA3,T3</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MCA3,T3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MCA2,T2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MCAL1,T4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MCA2,T2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MCA4,T4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MCAL1,T1</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MCA4,T4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MCA1,T1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MCA2,T2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MCA4,T4</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MCAL1,T3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>MCA3,T3</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MCA1,T1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MCA1,T1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MCA1,T1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MCAL1,T2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MCA2,T2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>MCAL1,T2</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MCA1,T1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MCA3,T3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MCA2,T2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MCA4,T4</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MCA4,T4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>MCA4,T4</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/timetable/timetable.xlsx
+++ b/timetable/timetable.xlsx
@@ -459,27 +459,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>MCA3,T3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>MCA2,T2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MCAL1,T1</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>MCAL1,T2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MCA2,T2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>MCA1,T1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MCA3,T3</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>MCA3,T3</t>
         </is>
       </c>
     </row>
@@ -491,32 +491,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MCAL1,T3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MCA1,T1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MCA2,T2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MCA4,T4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>MCA3,T3</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MCAL1,T4</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>MCA4,T4</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>MCAL1,T1</t>
         </is>
       </c>
     </row>
@@ -533,27 +533,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>MCA3,T3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>MCA1,T1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MCA3,T3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MCA3,T3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MCA4,T4</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>MCAL1,T3</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>MCA3,T3</t>
         </is>
       </c>
     </row>
@@ -570,27 +570,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>MCAL1,T3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MCA2,T2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MCA4,T4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MCAL1,T4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>MCA1,T1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MCA1,T1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MCAL1,T2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>MCAL1,T2</t>
         </is>
       </c>
     </row>
@@ -602,27 +602,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>MCA2,T2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MCA4,T4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MCAL1,T3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>MCA1,T1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MCA3,T3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MCA4,T4</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MCA4,T4</t>
+          <t>MCAL1,T1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">

--- a/timetable/timetable.xlsx
+++ b/timetable/timetable.xlsx
@@ -454,32 +454,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>MCA4,T4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MCA1,T1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MCA4,T4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>MCA3,T3</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MCA2,T2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>MCA3,T3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MCAL1,T2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>MCA1,T1</t>
         </is>
       </c>
     </row>
@@ -491,24 +491,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MCAL1,T3</t>
+          <t>MCA4,T4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>MCA2,T2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MCAL1,T4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>MCA1,T1</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MCA4,T4</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>MCA3,T3</t>
@@ -516,7 +516,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>MCA4,T4</t>
+          <t>MCA1,T1</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCA4,T4</t>
+          <t>MCA2,T2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,22 +538,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>MCA2,T2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>MCA1,T1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MCA3,T3</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MCA3,T3</t>
+          <t>MCAL1,T3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>MCA2,T2</t>
+          <t>MCA1,T1</t>
         </is>
       </c>
     </row>
@@ -570,27 +570,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>MCA4,T4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>MCAL1,T3</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MCA3,T3</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>MCA2,T2</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MCA4,T4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MCAL1,T4</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>MCA1,T1</t>
+          <t>MCAL1,T3</t>
         </is>
       </c>
     </row>
@@ -602,27 +602,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>MCA4,T4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MCAL1,T2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MCAL1,T2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MCA3,T3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MCA4,T4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MCAL1,T3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MCA1,T1</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MCAL1,T1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">

--- a/timetable/timetable.xlsx
+++ b/timetable/timetable.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RMCA2030" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RMCA2024" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,32 +454,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MCA4,T4</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MCA1,T1</t>
+          <t>MCA5,T6</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MCA4,T4</t>
+          <t>MCA5,T5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MCA3,T3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MCA2,T2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>MCA3,T3</t>
+          <t>MCA1,T2</t>
         </is>
       </c>
     </row>
@@ -491,32 +476,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MCA4,T4</t>
+          <t>MCA4,T5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MCA2,T2</t>
+          <t>MCA4,T5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MCAL1,T4</t>
+          <t>MCA2,T3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MCA1,T1</t>
+          <t>MCA4,T5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MCA3,T3</t>
+          <t>MCA4,T5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>MCA1,T1</t>
+          <t>MCA2,T3</t>
         </is>
       </c>
     </row>
@@ -528,32 +513,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCA2,T2</t>
+          <t>MCA2,T3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MCA3,T3</t>
+          <t>MCA1,T2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MCA2,T2</t>
+          <t>MCA1,T2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MCA1,T1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>MCAL1,T3</t>
+          <t>MCA3,T4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>MCA1,T1</t>
+          <t>MCA4,T6</t>
         </is>
       </c>
     </row>
@@ -565,32 +545,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCA1,T1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MCA4,T4</t>
+          <t>MCA1,T2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MCAL1,T3</t>
+          <t>MCA4,T5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MCA3,T3</t>
+          <t>MCA3,T4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MCA2,T2</t>
+          <t>MCA2,T3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>MCAL1,T3</t>
+          <t>MCA5,T5</t>
         </is>
       </c>
     </row>
@@ -602,32 +577,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MCA4,T4</t>
+          <t>MCA3,T4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MCAL1,T2</t>
+          <t>MCA5,T5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MCAL1,T2</t>
+          <t>MCA5,T5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MCA3,T3</t>
+          <t>MCA5,T6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MCA2,T2</t>
+          <t>MCA2,T3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MCA4,T4</t>
+          <t>MCA1,T2</t>
         </is>
       </c>
     </row>
